--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_135.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_135.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,616 +488,666 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1454741379310345</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_144</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06853146853146853</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['A:min', 'E:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(8.413696, 11.072593)]</t>
+          <t>[['C:min', 'G:min/A#', 'C:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:00:28.536000', '0:00:33.834000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:35.680000', '0:01:47.400000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_35</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
-        </is>
+          <t>jaah_0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07480106100795755</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(54.78, 57.52)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(22.36, 25.24)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:04.320000', '0:01:08.270000'), ('0:00:25.220000', '0:00:27.170000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:07.800000', '0:00:13.600000'), ('0:01:10.980000', '0:01:20.440000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0572717806317251</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['D:min', 'D:min', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (35.22, 40.0), (11.7, 20.02)]</t>
+          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(109.52, 114.2), (32.2, 36.2), (1.26, 5.44)]</t>
+          <t>[('0:00:30.200000', '0:00:45.200000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:00.060000', '0:00:06.451609')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'Bb'], ['F', 'Bb', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A'], ['E', 'A', 'F#:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.156928, 7.265318), (63.562098, 68.809808)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(13.8465, 18.745911), (18.745911, 24.806319)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:02:00.220000', '0:02:01.920000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_59</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0907960199004975</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min7', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_185</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_46</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1476833976833977</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb']]</t>
+          <t>[['E', 'A', 'G:maj/9']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(60.86, 67.913)]</t>
+          <t>[['A', 'D', 'C']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.3, 2.67)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:50.498163', '0:01:03.687097')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:16.151020', '0:00:20.423492')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1194879089615932</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2873563218390804</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D'], ['G', 'A', 'D']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(17.581738, 30.271443), (43.100468, 51.657021)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(28.921995, 33.101587), (14.711383, 18.983854)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:23.800000', '0:00:55.360000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:47.020000', '0:01:01.580000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3166666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.16, 15.08)]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4033613445378151</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>[['D', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.4, 12.02)]</t>
+          <t>[['D', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(14.0, 16.38)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:43.076000', '0:00:51.380000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:11.964095', '0:00:16.329446')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2698412698412698</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.15, 5.734)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(56.72, 58.88)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1230180426462548</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'A/3', 'A/5', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'D/b7', 'D/6', 'D/5', 'G']]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(7.831373, 12.39)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(35.486462, 41.361111)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(79.98, 93.6)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(219.56, 230.9)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1492921492921493</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(243.02, 244.86)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(72.82, 84.38)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82), (9.26, 13.9), (44.2, 59.98), (1.18, 6.14)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(26.48, 31.82), (25.8, 29.46), (253.84, 257.6), (14.62, 19.56)]</t>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'D'], ['D/5', 'A/3', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'D:maj'], ['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.8617, 16.701519), (21.740249, 26.767369)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(45.298, 63.135), (27.771, 41.282)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09099264705882354</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Eb', 'G/5', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G', 'B', 'E']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.122845, 8.846564)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(22.035759, 28.395907)]</t>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1822250639386189</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E/5', 'B', 'E', 'B:7', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(59.327006, 65.956303)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(52.1, 55.64)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
